--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -7,32 +7,30 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="K-Fall" sheetId="1" r:id="rId1"/>
-    <sheet name="K-Spring" sheetId="2" r:id="rId2"/>
-    <sheet name="1-Fall" sheetId="3" r:id="rId3"/>
-    <sheet name="1-Spring" sheetId="4" r:id="rId4"/>
-    <sheet name="2-Fall" sheetId="5" r:id="rId5"/>
-    <sheet name="2-Spring" sheetId="6" r:id="rId6"/>
-    <sheet name="3-Fall" sheetId="7" r:id="rId7"/>
-    <sheet name="3-Spring" sheetId="8" r:id="rId8"/>
-    <sheet name="4-Fall" sheetId="9" r:id="rId9"/>
-    <sheet name="4-Spring" sheetId="10" r:id="rId10"/>
-    <sheet name="5-Fall" sheetId="11" r:id="rId11"/>
-    <sheet name="5-Spring" sheetId="12" r:id="rId12"/>
-    <sheet name="6-Fall" sheetId="13" r:id="rId13"/>
-    <sheet name="6-Spring" sheetId="14" r:id="rId14"/>
-    <sheet name="7-Fall" sheetId="15" r:id="rId15"/>
-    <sheet name="7-Spring" sheetId="16" r:id="rId16"/>
-    <sheet name="8-Fall" sheetId="17" r:id="rId17"/>
-    <sheet name="8-Spring" sheetId="18" r:id="rId18"/>
-    <sheet name="9-Fall" sheetId="19" r:id="rId19"/>
-    <sheet name="9-Spring" sheetId="20" r:id="rId20"/>
-    <sheet name="10-Fall" sheetId="21" r:id="rId21"/>
-    <sheet name="10-Spring" sheetId="22" r:id="rId22"/>
-    <sheet name="11-Fall" sheetId="23" r:id="rId23"/>
-    <sheet name="11-Spring" sheetId="24" r:id="rId24"/>
-    <sheet name="12-Fall" sheetId="25" r:id="rId25"/>
-    <sheet name="12-Spring" sheetId="26" r:id="rId26"/>
+    <sheet name="1-Fall" sheetId="1" r:id="rId1"/>
+    <sheet name="1-Spring" sheetId="2" r:id="rId2"/>
+    <sheet name="2-Fall" sheetId="3" r:id="rId3"/>
+    <sheet name="2-Spring" sheetId="4" r:id="rId4"/>
+    <sheet name="3-Fall" sheetId="5" r:id="rId5"/>
+    <sheet name="3-Spring" sheetId="6" r:id="rId6"/>
+    <sheet name="4-Fall" sheetId="7" r:id="rId7"/>
+    <sheet name="4-Spring" sheetId="8" r:id="rId8"/>
+    <sheet name="5-Fall" sheetId="9" r:id="rId9"/>
+    <sheet name="5-Spring" sheetId="10" r:id="rId10"/>
+    <sheet name="6-Fall" sheetId="11" r:id="rId11"/>
+    <sheet name="6-Spring" sheetId="12" r:id="rId12"/>
+    <sheet name="7-Fall" sheetId="13" r:id="rId13"/>
+    <sheet name="7-Spring" sheetId="14" r:id="rId14"/>
+    <sheet name="8-Fall" sheetId="15" r:id="rId15"/>
+    <sheet name="8-Spring" sheetId="16" r:id="rId16"/>
+    <sheet name="9-Fall" sheetId="17" r:id="rId17"/>
+    <sheet name="9-Spring" sheetId="18" r:id="rId18"/>
+    <sheet name="10-Fall" sheetId="19" r:id="rId19"/>
+    <sheet name="10-Spring" sheetId="20" r:id="rId20"/>
+    <sheet name="11-Fall" sheetId="21" r:id="rId21"/>
+    <sheet name="11-Spring" sheetId="22" r:id="rId22"/>
+    <sheet name="12-Fall" sheetId="23" r:id="rId23"/>
+    <sheet name="12-Spring" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -399,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -415,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -431,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -439,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -447,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -471,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -479,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -487,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -495,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -503,7 +501,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -511,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -784,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -792,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -808,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -824,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -832,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -840,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -848,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -856,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -872,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -880,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -896,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -904,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -912,7 +910,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -920,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -928,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -936,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -944,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -952,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -968,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -976,7 +974,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -984,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -992,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -1000,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1008,7 +1006,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -1016,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1032,7 +1030,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -1040,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1048,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1056,7 +1054,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1064,7 +1062,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1153,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1161,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1169,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1177,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1185,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1193,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1201,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1217,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1225,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1233,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1241,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1249,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1257,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1265,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1273,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -1281,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -1297,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1321,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1329,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1345,7 +1343,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1353,7 +1351,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1361,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -1369,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1377,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1385,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1401,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -1409,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -1417,7 +1415,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1425,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1433,7 +1431,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -1441,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -1530,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1538,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1546,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1554,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1562,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1570,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1578,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1586,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1594,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1602,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1610,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1618,7 +1616,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -1626,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1634,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1642,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1650,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1658,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1666,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1674,7 +1672,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -1682,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -1690,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1698,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1706,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -1714,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -1722,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1730,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1738,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -1746,7 +1744,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -1754,7 +1752,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -1762,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1770,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -1778,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -1786,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1794,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1802,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1810,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38">
@@ -1818,7 +1816,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1907,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1923,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1931,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1939,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1947,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1963,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1971,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1979,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1987,7 +1985,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1995,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -2003,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2009,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -2019,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2027,7 +2025,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -2035,7 +2033,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -2043,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -2051,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -2067,7 +2065,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2075,7 +2073,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -2083,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2091,7 +2089,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -2099,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -2107,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -2115,7 +2113,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -2123,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -2131,7 +2129,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -2139,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -2147,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -2155,7 +2153,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -2163,7 +2161,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -2171,7 +2169,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -2179,7 +2177,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -2187,7 +2185,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -2195,7 +2193,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -2203,7 +2201,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2284,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2292,7 +2290,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2300,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2308,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -2316,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -2324,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -2332,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -2340,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -2348,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2364,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -2372,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2380,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -2388,7 +2386,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -2396,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2404,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -2412,7 +2410,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -2420,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2428,7 +2426,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -2436,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -2444,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -2452,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2460,7 +2458,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2468,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -2476,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -2484,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -2492,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -2500,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -2508,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2516,7 +2514,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -2524,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -2532,7 +2530,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -2540,7 +2538,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -2548,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -2556,7 +2554,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -2564,7 +2562,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -2572,7 +2570,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -2580,7 +2578,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -2661,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2669,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -2677,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2685,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -2693,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -2701,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2709,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -2717,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -2725,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -2733,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2741,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -2749,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -2757,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2765,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -2773,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -2781,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2789,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -2797,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -2805,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -2813,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2821,7 +2819,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -2829,7 +2827,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -2837,7 +2835,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -2845,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -2853,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -2861,7 +2859,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -2869,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -2877,7 +2875,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -2893,7 +2891,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -2901,7 +2899,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -2909,7 +2907,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -2917,7 +2915,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -2925,7 +2923,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -2933,7 +2931,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -2941,7 +2939,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -2949,7 +2947,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -2957,7 +2955,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -3038,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3046,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -3054,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -3062,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -3070,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -3078,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -3086,7 +3084,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -3094,7 +3092,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -3102,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -3110,7 +3108,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -3118,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -3126,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3134,7 +3132,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -3142,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -3150,7 +3148,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -3158,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -3166,7 +3164,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -3174,7 +3172,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -3182,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -3190,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3198,7 +3196,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -3206,7 +3204,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3214,7 +3212,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -3222,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -3230,7 +3228,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3238,7 +3236,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -3246,7 +3244,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -3254,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -3262,7 +3260,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -3270,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -3278,7 +3276,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -3286,7 +3284,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -3294,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -3302,7 +3300,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -3310,7 +3308,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -3318,7 +3316,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -3326,7 +3324,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -3334,7 +3332,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -3415,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -3423,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -3431,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -3439,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -3447,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -3455,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -3463,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -3471,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -3479,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -3487,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -3495,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -3503,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -3511,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -3519,7 +3517,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -3527,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -3535,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -3543,7 +3541,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -3551,7 +3549,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3559,7 +3557,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -3567,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -3575,7 +3573,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -3583,7 +3581,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -3591,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -3599,7 +3597,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -3607,7 +3605,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -3615,7 +3613,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3623,7 +3621,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -3631,7 +3629,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -3639,7 +3637,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -3647,7 +3645,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -3655,7 +3653,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -3663,7 +3661,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -3671,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -3679,7 +3677,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -3687,7 +3685,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -3695,7 +3693,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -3703,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -3711,7 +3709,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -3792,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -3800,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -3808,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -3816,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -3824,7 +3822,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -3832,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -3840,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -3848,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -3856,7 +3854,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -3864,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -3872,7 +3870,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -3880,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -3888,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -3896,7 +3894,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -3904,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3912,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -3920,7 +3918,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -3928,7 +3926,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -3936,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3944,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -3952,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -3960,7 +3958,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3968,7 +3966,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -3976,7 +3974,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -3984,7 +3982,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -3992,7 +3990,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -4000,7 +3998,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -4008,7 +4006,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4016,7 +4014,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -4024,7 +4022,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4032,7 +4030,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -4040,7 +4038,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -4048,7 +4046,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -4056,7 +4054,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -4064,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -4072,7 +4070,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -4080,7 +4078,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -4169,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -4177,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -4185,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -4193,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -4201,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -4209,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -4217,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -4225,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -4233,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -4241,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -4249,7 +4247,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -4257,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -4265,7 +4263,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -4273,7 +4271,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -4281,7 +4279,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -4289,7 +4287,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -4297,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -4305,7 +4303,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -4313,7 +4311,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -4321,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -4329,7 +4327,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -4337,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -4345,7 +4343,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4353,7 +4351,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -4361,7 +4359,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -4369,7 +4367,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -4377,7 +4375,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -4385,7 +4383,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -4393,7 +4391,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -4401,7 +4399,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -4409,7 +4407,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -4417,7 +4415,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -4425,7 +4423,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -4433,7 +4431,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -4441,7 +4439,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -4449,7 +4447,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -4457,7 +4455,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -4465,7 +4463,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -4546,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -4554,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -4562,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -4570,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -4578,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -4586,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -4594,7 +4592,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -4602,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -4610,7 +4608,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -4618,7 +4616,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -4626,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -4634,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -4642,7 +4640,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -4650,7 +4648,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -4658,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -4666,7 +4664,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -4674,7 +4672,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
@@ -4682,7 +4680,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -4690,7 +4688,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -4923,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4931,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -4939,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -4947,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -4955,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -4963,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -4971,7 +4969,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -4979,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -4987,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -4995,7 +4993,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -5003,7 +5001,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -5011,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -5019,7 +5017,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -5027,7 +5025,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -5035,7 +5033,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -5043,7 +5041,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -5051,7 +5049,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -5059,7 +5057,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -5067,7 +5065,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -5075,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -5083,7 +5081,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -5091,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -5099,7 +5097,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -5107,7 +5105,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -5115,7 +5113,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -5123,7 +5121,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -5131,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -5139,7 +5137,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -5147,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -5155,7 +5153,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -5163,7 +5161,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -5171,7 +5169,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -5179,7 +5177,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -5187,7 +5185,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -5195,7 +5193,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -5203,7 +5201,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -5211,7 +5209,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -5219,7 +5217,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -5227,7 +5225,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -5300,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5308,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5316,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -5324,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -5332,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -5340,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -5348,7 +5346,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -5356,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -5364,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -5372,7 +5370,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -5380,7 +5378,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -5388,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -5396,7 +5394,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -5404,7 +5402,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5410,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -5420,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -5428,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -5436,7 +5434,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -5444,7 +5442,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -5452,7 +5450,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -5460,7 +5458,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -5468,7 +5466,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -5476,7 +5474,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -5484,7 +5482,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -5492,7 +5490,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -5500,7 +5498,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -5508,7 +5506,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -5516,7 +5514,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -5524,7 +5522,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -5532,7 +5530,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -5540,7 +5538,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -5548,7 +5546,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -5556,7 +5554,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -5564,7 +5562,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -5572,7 +5570,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -5580,7 +5578,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -5588,7 +5586,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -5596,7 +5594,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -5604,7 +5602,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -5685,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5693,7 +5691,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5701,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -5709,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -5717,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -5725,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -5733,7 +5731,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -5741,7 +5739,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -5749,7 +5747,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -5757,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -5765,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -5773,7 +5771,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -5781,7 +5779,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -5789,7 +5787,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -5797,7 +5795,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -5805,7 +5803,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -5813,7 +5811,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5821,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5829,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -5837,7 +5835,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -5845,7 +5843,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -5853,7 +5851,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -5861,7 +5859,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -5869,7 +5867,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -5877,7 +5875,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -5885,7 +5883,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -5893,7 +5891,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -5901,7 +5899,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -5909,7 +5907,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -5917,7 +5915,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -5925,7 +5923,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -5933,7 +5931,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -5941,7 +5939,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -5949,7 +5947,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -5957,7 +5955,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -5965,7 +5963,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -5973,7 +5971,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -5981,7 +5979,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
@@ -5989,7 +5987,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -6078,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6086,7 +6084,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -6094,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -6102,7 +6100,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -6110,7 +6108,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -6118,7 +6116,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -6126,7 +6124,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -6134,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -6142,7 +6140,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -6150,7 +6148,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -6158,7 +6156,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -6166,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -6174,7 +6172,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -6182,7 +6180,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -6190,7 +6188,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -6198,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -6206,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -6214,7 +6212,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -6222,7 +6220,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -6230,7 +6228,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -6238,7 +6236,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -6246,7 +6244,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -6254,7 +6252,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -6262,7 +6260,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -6270,7 +6268,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -6278,7 +6276,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -6286,7 +6284,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -6294,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -6302,7 +6300,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -6310,7 +6308,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -6318,7 +6316,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -6326,7 +6324,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -6334,7 +6332,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -6342,7 +6340,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -6350,7 +6348,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -6358,7 +6356,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -6366,7 +6364,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -6374,7 +6372,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -6455,760 +6453,6 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
         <v>40</v>
       </c>
     </row>
@@ -7562,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -7570,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -7578,7 +6822,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -7586,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -7594,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -7602,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -7610,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -7618,7 +6862,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -7626,7 +6870,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -7634,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -7642,7 +6886,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -7650,7 +6894,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -7658,7 +6902,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -7666,7 +6910,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -7674,7 +6918,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -7682,7 +6926,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -7690,7 +6934,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -7698,7 +6942,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -7706,7 +6950,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -7714,7 +6958,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
@@ -7722,7 +6966,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -7730,7 +6974,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -7738,7 +6982,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -7939,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -7947,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -7955,7 +7199,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -7963,7 +7207,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -7971,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -7979,7 +7223,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -7987,7 +7231,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -7995,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -8003,7 +7247,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -8011,7 +7255,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -8019,7 +7263,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -8027,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -8035,7 +7279,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -8043,7 +7287,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -8051,7 +7295,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -8059,7 +7303,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -8067,7 +7311,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -8075,7 +7319,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -8083,7 +7327,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -8091,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -8099,7 +7343,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -8107,7 +7351,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -8115,7 +7359,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -8123,7 +7367,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -8131,7 +7375,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
@@ -8139,7 +7383,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
@@ -8316,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -8324,7 +7568,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -8332,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -8340,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -8348,7 +7592,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -8356,7 +7600,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -8364,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -8372,7 +7616,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -8380,7 +7624,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -8388,7 +7632,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -8396,7 +7640,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -8404,7 +7648,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -8412,7 +7656,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -8420,7 +7664,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -8428,7 +7672,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -8436,7 +7680,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -8444,7 +7688,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -8452,7 +7696,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -8460,7 +7704,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -8468,7 +7712,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -8476,7 +7720,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -8484,7 +7728,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -8492,7 +7736,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -8500,7 +7744,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -8508,7 +7752,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -8516,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -8524,7 +7768,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -8532,7 +7776,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -8693,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -8701,7 +7945,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -8709,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -8717,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -8725,7 +7969,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -8733,7 +7977,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -8741,7 +7985,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -8749,7 +7993,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -8757,7 +8001,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -8765,7 +8009,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -8773,7 +8017,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -8781,7 +8025,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -8789,7 +8033,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -8797,7 +8041,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -8805,7 +8049,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -8813,7 +8057,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -8821,7 +8065,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -8829,7 +8073,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -8837,7 +8081,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -8845,7 +8089,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -8853,7 +8097,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -8861,7 +8105,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -8869,7 +8113,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -8877,7 +8121,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -8885,7 +8129,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -8893,7 +8137,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -8901,7 +8145,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -8909,7 +8153,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -8917,7 +8161,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -8925,7 +8169,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -8933,7 +8177,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -9070,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -9078,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -9086,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -9094,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -9102,7 +8346,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -9110,7 +8354,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -9118,7 +8362,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -9126,7 +8370,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -9134,7 +8378,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -9142,7 +8386,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -9150,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -9158,7 +8402,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -9166,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -9174,7 +8418,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -9182,7 +8426,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -9190,7 +8434,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -9198,7 +8442,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -9206,7 +8450,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -9214,7 +8458,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -9222,7 +8466,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -9230,7 +8474,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -9238,7 +8482,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -9246,7 +8490,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -9254,7 +8498,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -9262,7 +8506,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -9270,7 +8514,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -9278,7 +8522,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -9286,7 +8530,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -9294,7 +8538,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -9302,7 +8546,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -9310,7 +8554,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -9318,7 +8562,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -9326,7 +8570,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -9447,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -9455,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -9463,7 +8707,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -9471,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -9479,7 +8723,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -9487,7 +8731,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -9495,7 +8739,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -9503,7 +8747,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -9511,7 +8755,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -9519,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -9527,7 +8771,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -9535,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -9543,7 +8787,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -9551,7 +8795,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -9559,7 +8803,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -9567,7 +8811,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -9575,7 +8819,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -9583,7 +8827,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -9591,7 +8835,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -9599,7 +8843,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -9607,7 +8851,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -9615,7 +8859,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -9623,7 +8867,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -9631,7 +8875,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -9639,7 +8883,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -9647,7 +8891,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -9655,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -9663,7 +8907,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -9671,7 +8915,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -9679,7 +8923,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -9687,7 +8931,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -9695,7 +8939,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -9703,7 +8947,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -9711,7 +8955,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -9824,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -9832,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -9840,7 +9084,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -9848,7 +9092,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -9856,7 +9100,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -9864,7 +9108,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -9872,7 +9116,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -9880,7 +9124,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -9888,7 +9132,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -9896,7 +9140,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -9904,7 +9148,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -9912,7 +9156,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -9920,7 +9164,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -9928,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -9936,7 +9180,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -9944,7 +9188,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -9952,7 +9196,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -9960,7 +9204,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -9968,7 +9212,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -9976,7 +9220,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -9984,7 +9228,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -9992,7 +9236,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -10000,7 +9244,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -10008,7 +9252,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -10016,7 +9260,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -10024,7 +9268,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -10032,7 +9276,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -10040,7 +9284,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -10048,7 +9292,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -10056,7 +9300,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -10064,7 +9308,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -10072,7 +9316,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -10080,7 +9324,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -10088,7 +9332,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -10096,7 +9340,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -10104,7 +9348,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -926,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -934,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -950,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -966,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -974,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -990,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -998,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -1006,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -1014,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1022,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1030,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -1038,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1046,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -1070,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -1078,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -1319,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -1327,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -1351,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1367,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -1375,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1391,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -1399,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1407,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -1415,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -1423,7 +1423,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1431,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -1447,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1455,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -1463,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -1471,7 +1471,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1624,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1632,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1672,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -1704,7 +1704,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -1712,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1720,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1728,7 +1728,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1736,7 +1736,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1744,7 +1744,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1752,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1760,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1768,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -1776,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1784,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
@@ -1792,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1800,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -1808,7 +1808,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1816,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -1832,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -1848,7 +1848,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -1856,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -2001,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -2009,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -2049,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -2073,7 +2073,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -2089,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2113,7 +2113,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -2121,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -2129,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -2137,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -2145,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -2153,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -2161,7 +2161,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -2169,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2177,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -2185,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -2193,7 +2193,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -2201,7 +2201,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -2209,7 +2209,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -2217,7 +2217,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -2225,7 +2225,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -2233,7 +2233,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -2241,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -2378,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2418,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2426,7 +2426,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -2450,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -2458,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -2474,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -2498,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -2506,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -2522,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -2538,7 +2538,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -2562,7 +2562,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -2570,7 +2570,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -2578,7 +2578,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -2586,7 +2586,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -2594,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -2602,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -2610,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -2618,7 +2618,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -2626,7 +2626,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2739,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -2763,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -2787,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -2795,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2803,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -2811,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -2819,7 +2819,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -2827,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -2835,7 +2835,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -2851,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2859,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -2867,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -2875,7 +2875,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -2883,7 +2883,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -2891,7 +2891,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -2899,7 +2899,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -2907,7 +2907,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -2923,7 +2923,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -2931,7 +2931,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -2939,7 +2939,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -2947,7 +2947,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -2955,7 +2955,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -2963,7 +2963,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -2971,7 +2971,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -2979,7 +2979,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -2987,7 +2987,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -2995,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -3003,7 +3003,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -3011,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -3132,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -3140,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -3148,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -3156,7 +3156,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -3180,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -3188,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -3204,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3212,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -3220,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -3228,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -3236,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -3244,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -3252,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -3260,7 +3260,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3268,7 +3268,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -3276,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -3284,7 +3284,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -3292,7 +3292,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -3300,7 +3300,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -3308,7 +3308,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -3316,7 +3316,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -3324,7 +3324,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -3332,7 +3332,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -3340,7 +3340,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -3348,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -3356,7 +3356,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -3364,7 +3364,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -3372,7 +3372,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -3380,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3388,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -3396,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -3525,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -3533,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -3549,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -3573,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -3581,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -3597,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -3605,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -3613,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -3621,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -3629,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -3637,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -3645,7 +3645,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3653,7 +3653,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -3661,7 +3661,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -3669,7 +3669,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3677,7 +3677,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -3685,7 +3685,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -3693,7 +3693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -3701,7 +3701,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -3709,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -3717,7 +3717,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -3725,7 +3725,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -3733,7 +3733,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -3741,7 +3741,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -3749,7 +3749,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -3757,7 +3757,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -3765,7 +3765,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -3773,7 +3773,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -3902,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -3910,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -3958,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -3966,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -3974,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -3998,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -4014,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -4030,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -4038,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -4046,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4054,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -4062,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -4070,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -4078,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -4086,7 +4086,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -4102,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4110,7 +4110,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -4126,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -4142,7 +4142,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -4150,7 +4150,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -4158,7 +4158,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4263,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -4279,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -4287,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -4303,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -4311,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -4319,7 +4319,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -4327,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -4335,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -4343,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -4351,7 +4351,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -4359,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -4367,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -4375,7 +4375,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -4383,7 +4383,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -4391,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -4399,7 +4399,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -4407,7 +4407,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -4415,7 +4415,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -4423,7 +4423,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -4431,7 +4431,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -4439,7 +4439,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4447,7 +4447,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -4455,7 +4455,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -4463,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -4471,7 +4471,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -4479,7 +4479,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -4487,7 +4487,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -4495,7 +4495,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -4503,7 +4503,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -4511,7 +4511,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -4519,7 +4519,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -4527,7 +4527,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -4535,7 +4535,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -4543,7 +4543,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -4672,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -4680,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -4688,7 +4688,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -4696,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -4704,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -4712,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -4720,7 +4720,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -4728,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -4736,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -4744,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -4752,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -4760,7 +4760,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -4768,7 +4768,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -4776,7 +4776,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -4784,7 +4784,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -4792,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -5049,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -5065,7 +5065,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -5073,7 +5073,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -5081,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -5089,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -5105,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -5113,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -5121,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -5129,7 +5129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -5137,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -5145,7 +5145,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -5153,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5161,7 +5161,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5169,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -5177,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -5185,7 +5185,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -5193,7 +5193,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -5201,7 +5201,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -5209,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -5217,7 +5217,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -5225,7 +5225,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -5233,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -5241,7 +5241,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -5249,7 +5249,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -5257,7 +5257,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -5265,7 +5265,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -5273,7 +5273,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -5281,7 +5281,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -5289,7 +5289,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -5297,7 +5297,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -5426,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -5434,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -5450,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -5458,7 +5458,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -5474,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -5482,7 +5482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -5490,7 +5490,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -5498,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -5506,7 +5506,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -5514,7 +5514,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -5530,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -5538,7 +5538,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -5546,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -5554,7 +5554,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -5562,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -5570,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -5578,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -5586,7 +5586,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -5594,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -5602,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -5610,7 +5610,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -5618,7 +5618,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -5626,7 +5626,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -5634,7 +5634,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -5642,7 +5642,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -5650,7 +5650,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -5658,7 +5658,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5666,7 +5666,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -5674,7 +5674,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -5682,7 +5682,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -5698,7 +5698,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -5706,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -5819,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -5827,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -5835,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -5843,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -5851,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -5859,7 +5859,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -5867,7 +5867,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -5875,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -5883,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -5891,7 +5891,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -5899,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -5907,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -5915,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -5923,7 +5923,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -5931,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -5939,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5947,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -5955,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -5963,7 +5963,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -5971,7 +5971,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -5979,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -5987,7 +5987,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -5995,7 +5995,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -6003,7 +6003,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -6011,7 +6011,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -6019,7 +6019,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -6027,7 +6027,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -6035,7 +6035,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -6043,7 +6043,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -6051,7 +6051,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -6059,7 +6059,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -6067,7 +6067,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -6075,7 +6075,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -6083,7 +6083,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -6107,7 +6107,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -6212,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -6236,7 +6236,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -6252,7 +6252,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -6260,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -6268,7 +6268,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -6276,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -6284,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -6292,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -6300,7 +6300,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -6308,7 +6308,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -6316,7 +6316,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -6324,7 +6324,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -6332,7 +6332,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -6340,7 +6340,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -6348,7 +6348,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -6356,7 +6356,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -6364,7 +6364,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -6372,7 +6372,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -6380,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -6388,7 +6388,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -6396,7 +6396,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -6412,7 +6412,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -6420,7 +6420,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -6428,7 +6428,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -6436,7 +6436,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -6452,7 +6452,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -6460,7 +6460,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -6484,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -6613,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -6621,7 +6621,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -6629,7 +6629,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -6637,7 +6637,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -6645,7 +6645,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -6661,7 +6661,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -6677,7 +6677,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -6685,7 +6685,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -6693,7 +6693,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -6701,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -6709,7 +6709,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -6717,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -6725,7 +6725,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -6733,7 +6733,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -6741,7 +6741,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -6749,7 +6749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -6757,7 +6757,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -6765,7 +6765,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -6773,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -6781,7 +6781,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -6789,7 +6789,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -6797,7 +6797,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -6805,7 +6805,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -6813,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -6821,7 +6821,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -6829,7 +6829,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -6837,7 +6837,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -6853,7 +6853,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -6974,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -6982,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -6990,7 +6990,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -6998,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -7006,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -7014,7 +7014,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -7022,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -7030,7 +7030,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -7038,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -7046,7 +7046,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -7054,7 +7054,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -7062,7 +7062,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -7070,7 +7070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -7078,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -7086,7 +7086,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -7094,7 +7094,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -7102,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -7110,7 +7110,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -7118,7 +7118,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -7126,7 +7126,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -7343,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -7359,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -7367,7 +7367,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -7375,7 +7375,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -7383,7 +7383,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -7391,7 +7391,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -7399,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -7407,7 +7407,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -7415,7 +7415,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -7423,7 +7423,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -7431,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -7439,7 +7439,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -7447,7 +7447,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -7455,7 +7455,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -7463,7 +7463,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -7471,7 +7471,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -7479,7 +7479,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -7487,7 +7487,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -7495,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -7503,7 +7503,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -7511,7 +7511,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -7519,7 +7519,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -7527,7 +7527,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -7535,7 +7535,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -7543,7 +7543,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -7720,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -7744,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -7752,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -7760,7 +7760,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -7768,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -7776,7 +7776,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -7784,7 +7784,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -7792,7 +7792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -7800,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -7808,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -7824,7 +7824,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -7832,7 +7832,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -7840,7 +7840,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -7848,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -7856,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -7864,7 +7864,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -7872,7 +7872,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -7880,7 +7880,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -7888,7 +7888,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -7896,7 +7896,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -7904,7 +7904,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -7912,7 +7912,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -7920,7 +7920,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -7928,7 +7928,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -7936,7 +7936,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -7944,7 +7944,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -8129,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -8137,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -8145,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -8153,7 +8153,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -8161,7 +8161,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -8169,7 +8169,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -8177,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -8185,7 +8185,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -8193,7 +8193,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -8201,7 +8201,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -8209,7 +8209,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -8217,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -8225,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -8233,7 +8233,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -8241,7 +8241,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -8249,7 +8249,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -8257,7 +8257,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -8265,7 +8265,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -8273,7 +8273,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -8281,7 +8281,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -8289,7 +8289,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -8297,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -8305,7 +8305,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -8313,7 +8313,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -8321,7 +8321,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -8329,7 +8329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -8337,7 +8337,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -8345,7 +8345,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -8353,7 +8353,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -8506,7 +8506,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -8514,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -8522,7 +8522,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -8530,7 +8530,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -8538,7 +8538,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -8546,7 +8546,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -8554,7 +8554,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -8562,7 +8562,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -8570,7 +8570,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -8578,7 +8578,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -8586,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -8594,7 +8594,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -8602,7 +8602,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -8610,7 +8610,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -8618,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -8626,7 +8626,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -8634,7 +8634,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -8642,7 +8642,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -8650,7 +8650,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -8658,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -8666,7 +8666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -8674,7 +8674,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -8682,7 +8682,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -8690,7 +8690,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -8698,7 +8698,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -8706,7 +8706,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -8714,7 +8714,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -8722,7 +8722,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -8730,7 +8730,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -8738,7 +8738,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -8746,7 +8746,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -8883,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -8891,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -8899,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -8907,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -8915,7 +8915,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -8923,7 +8923,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -8931,7 +8931,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -8939,7 +8939,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -8947,7 +8947,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -8955,7 +8955,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -8963,7 +8963,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -8971,7 +8971,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -8979,7 +8979,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -8987,7 +8987,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -8995,7 +8995,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -9003,7 +9003,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -9011,7 +9011,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -9019,7 +9019,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -9027,7 +9027,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -9035,7 +9035,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -9043,7 +9043,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -9051,7 +9051,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -9059,7 +9059,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -9067,7 +9067,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
@@ -9075,7 +9075,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -9083,7 +9083,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -9091,7 +9091,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -9099,7 +9099,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -9107,7 +9107,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -9115,7 +9115,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -9123,7 +9123,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -9131,7 +9131,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -9139,7 +9139,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -9147,7 +9147,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -9260,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -9268,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -9276,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -9284,7 +9284,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -9292,7 +9292,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -9300,7 +9300,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -9308,7 +9308,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -9316,7 +9316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -9324,7 +9324,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -9332,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -9340,7 +9340,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -9348,7 +9348,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -9356,7 +9356,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -9364,7 +9364,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -9372,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -9380,7 +9380,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -9388,7 +9388,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -9396,7 +9396,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -9404,7 +9404,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -9412,7 +9412,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -9420,7 +9420,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -9428,7 +9428,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -9436,7 +9436,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -9444,7 +9444,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -9452,7 +9452,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -9460,7 +9460,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -9468,7 +9468,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -9476,7 +9476,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -9484,7 +9484,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -9492,7 +9492,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -9500,7 +9500,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -9508,7 +9508,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -9516,7 +9516,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -9524,7 +9524,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -9532,7 +9532,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -9540,7 +9540,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
